--- a/pahpedia/spitzer_akari_wvl.xlsx
+++ b/pahpedia/spitzer_akari_wvl.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26311"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10414"/>
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dhu/Dropbox/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dhu/Github/AnaCube/pahpedia/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A8D4BAC-79A7-5141-B314-4E86875CF266}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14320" tabRatio="500"/>
+    <workbookView xWindow="-32000" yWindow="3680" windowWidth="25600" windowHeight="14320" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="150000"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="70">
   <si>
     <t>sl2</t>
   </si>
@@ -185,9 +186,6 @@
     <t>14.2398815</t>
   </si>
   <si>
-    <t>Spitzer</t>
-  </si>
-  <si>
     <t>Akari</t>
   </si>
   <si>
@@ -219,12 +217,30 @@
   </si>
   <si>
     <t>5.1241937</t>
+  </si>
+  <si>
+    <t>IRS</t>
+  </si>
+  <si>
+    <t>photometry</t>
+  </si>
+  <si>
+    <t>MIPS1</t>
+  </si>
+  <si>
+    <t>IRAC3</t>
+  </si>
+  <si>
+    <t>IRAC4</t>
+  </si>
+  <si>
+    <t>IRAC1&amp;2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -279,6 +295,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -546,21 +565,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="S8" sqref="S8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>53</v>
+        <v>64</v>
+      </c>
+      <c r="S1" t="s">
+        <v>65</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -597,8 +619,14 @@
       <c r="R2" s="2" t="s">
         <v>20</v>
       </c>
+      <c r="S2" t="s">
+        <v>67</v>
+      </c>
+      <c r="T2" t="s">
+        <v>68</v>
+      </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -647,8 +675,11 @@
       <c r="R3" s="2" t="s">
         <v>14</v>
       </c>
+      <c r="T3" t="s">
+        <v>68</v>
+      </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -698,7 +729,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -735,46 +766,52 @@
       <c r="R5" t="s">
         <v>35</v>
       </c>
+      <c r="S5" t="s">
+        <v>66</v>
+      </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D7" t="s">
+        <v>56</v>
+      </c>
+      <c r="E7" t="s">
+        <v>55</v>
+      </c>
+      <c r="F7" t="s">
         <v>54</v>
-      </c>
-      <c r="B7" t="s">
-        <v>59</v>
-      </c>
-      <c r="C7" t="s">
-        <v>58</v>
-      </c>
-      <c r="D7" t="s">
-        <v>57</v>
-      </c>
-      <c r="E7" t="s">
-        <v>56</v>
-      </c>
-      <c r="F7" t="s">
-        <v>55</v>
       </c>
       <c r="I7" t="s">
         <v>9</v>
       </c>
       <c r="M7" t="s">
+        <v>60</v>
+      </c>
+      <c r="N7" t="s">
+        <v>63</v>
+      </c>
+      <c r="O7" t="s">
+        <v>62</v>
+      </c>
+      <c r="P7" t="s">
         <v>61</v>
       </c>
-      <c r="N7" t="s">
-        <v>64</v>
-      </c>
-      <c r="O7" t="s">
-        <v>63</v>
-      </c>
-      <c r="P7" t="s">
-        <v>62</v>
-      </c>
       <c r="Q7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="R7" t="s">
-        <v>60</v>
+        <v>59</v>
+      </c>
+      <c r="S7" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>
